--- a/it_api/wwwroot/report/excel/Danhsachnhansu.xlsx
+++ b/it_api/wwwroot/report/excel/Danhsachnhansu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF6D42-588F-4A43-99CC-103A76C6EB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BA89EC-6608-4D04-ADF1-87DA9265FC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C375E8E-D32D-496C-B1CE-FB4CBB1FE71C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mã NV</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Địa điểm làm việc</t>
+  </si>
+  <si>
+    <t>Tài khoản ngân hàng</t>
   </si>
 </sst>
 </file>
@@ -132,18 +138,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127741A6-3EF7-48FC-962D-61D0FA765DEF}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,10 +508,12 @@
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,9 +554,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Danhsachnhansu.xlsx
+++ b/it_api/wwwroot/report/excel/Danhsachnhansu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BA89EC-6608-4D04-ADF1-87DA9265FC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9239DC8-683B-450A-8122-4A828EB12405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C375E8E-D32D-496C-B1CE-FB4CBB1FE71C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Mã NV</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Tài khoản ngân hàng</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127741A6-3EF7-48FC-962D-61D0FA765DEF}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,10 +513,10 @@
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="16" max="17" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +565,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Danhsachnhansu.xlsx
+++ b/it_api/wwwroot/report/excel/Danhsachnhansu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9239DC8-683B-450A-8122-4A828EB12405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC8234-5763-46DB-9CA2-EE3E0FA9C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C375E8E-D32D-496C-B1CE-FB4CBB1FE71C}"/>
+    <workbookView xWindow="720" yWindow="2370" windowWidth="28080" windowHeight="13110" xr2:uid="{0C375E8E-D32D-496C-B1CE-FB4CBB1FE71C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Mã NV</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>CCCD</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127741A6-3EF7-48FC-962D-61D0FA765DEF}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +516,10 @@
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="17" width="36.5703125" customWidth="1"/>
+    <col min="16" max="18" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +571,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
